--- a/REGULAR/CTO/DE GRANO, MA. ERLINDA.xlsx
+++ b/REGULAR/CTO/DE GRANO, MA. ERLINDA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="274">
   <si>
     <t>PERIOD</t>
   </si>
@@ -869,6 +869,12 @@
   </si>
   <si>
     <t>UT(0-2-37)</t>
+  </si>
+  <si>
+    <t>SL(0-4-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1560,8 +1566,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K417" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K417"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K420" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K420"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
@@ -1890,12 +1896,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K417"/>
+  <dimension ref="A2:K420"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A363" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A369" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K382" sqref="K382"/>
+      <selection pane="bottomLeft" activeCell="K386" sqref="K386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,7 +2068,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>176.07399999999998</v>
+        <v>176.57399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2072,7 +2078,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>306.375</v>
+        <v>308.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10283,15 +10289,17 @@
       <c r="B382" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C382" s="13"/>
+      <c r="C382" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D382" s="39">
         <v>1</v>
       </c>
       <c r="E382" s="9"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G382" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H382" s="39"/>
       <c r="I382" s="9"/>
@@ -10301,10 +10309,10 @@
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B383" s="20"/>
+      <c r="A383" s="40"/>
+      <c r="B383" s="20" t="s">
+        <v>272</v>
+      </c>
       <c r="C383" s="13"/>
       <c r="D383" s="39"/>
       <c r="E383" s="9"/>
@@ -10313,18 +10321,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H383" s="39"/>
+      <c r="H383" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I383" s="9"/>
       <c r="J383" s="11"/>
-      <c r="K383" s="20"/>
+      <c r="K383" s="48">
+        <v>45198</v>
+      </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B384" s="20"/>
+      <c r="A384" s="40"/>
+      <c r="B384" s="20" t="s">
+        <v>259</v>
+      </c>
       <c r="C384" s="13"/>
-      <c r="D384" s="39"/>
+      <c r="D384" s="39">
+        <v>1</v>
+      </c>
       <c r="E384" s="9"/>
       <c r="F384" s="20"/>
       <c r="G384" s="13" t="str">
@@ -10334,20 +10348,24 @@
       <c r="H384" s="39"/>
       <c r="I384" s="9"/>
       <c r="J384" s="11"/>
-      <c r="K384" s="20"/>
+      <c r="K384" s="48">
+        <v>45230</v>
+      </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B385" s="20"/>
-      <c r="C385" s="13"/>
+      <c r="C385" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D385" s="39"/>
       <c r="E385" s="9"/>
       <c r="F385" s="20"/>
-      <c r="G385" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G385" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H385" s="39"/>
       <c r="I385" s="9"/>
@@ -10356,11 +10374,15 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B386" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B386" s="20" t="s">
+        <v>259</v>
+      </c>
       <c r="C386" s="13"/>
-      <c r="D386" s="39"/>
+      <c r="D386" s="39">
+        <v>1</v>
+      </c>
       <c r="E386" s="9"/>
       <c r="F386" s="20"/>
       <c r="G386" s="13" t="str">
@@ -10370,11 +10392,13 @@
       <c r="H386" s="39"/>
       <c r="I386" s="9"/>
       <c r="J386" s="11"/>
-      <c r="K386" s="20"/>
+      <c r="K386" s="48">
+        <v>45273</v>
+      </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="40">
-        <v>45352</v>
+      <c r="A387" s="49" t="s">
+        <v>273</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -10392,7 +10416,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -10410,7 +10434,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -10428,7 +10452,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -10446,7 +10470,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -10464,7 +10488,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -10482,7 +10506,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -10500,7 +10524,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -10518,7 +10542,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -10536,7 +10560,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -10554,7 +10578,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -10572,7 +10596,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10590,7 +10614,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10608,7 +10632,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10626,7 +10650,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10644,7 +10668,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10662,7 +10686,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10680,7 +10704,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>45870</v>
+        <v>45778</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10698,7 +10722,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>45901</v>
+        <v>45809</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10716,7 +10740,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10734,7 +10758,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10752,7 +10776,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10770,7 +10794,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10788,7 +10812,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>46054</v>
+        <v>45962</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10806,7 +10830,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10824,7 +10848,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10841,7 +10865,9 @@
       <c r="K412" s="20"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="40"/>
+      <c r="A413" s="40">
+        <v>46054</v>
+      </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
       <c r="D413" s="39"/>
@@ -10857,7 +10883,9 @@
       <c r="K413" s="20"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="40"/>
+      <c r="A414" s="40">
+        <v>46082</v>
+      </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
       <c r="D414" s="39"/>
@@ -10873,7 +10901,9 @@
       <c r="K414" s="20"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="40"/>
+      <c r="A415" s="40">
+        <v>46113</v>
+      </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
       <c r="D415" s="39"/>
@@ -10905,20 +10935,68 @@
       <c r="K416" s="20"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="41"/>
-      <c r="B417" s="15"/>
-      <c r="C417" s="42"/>
-      <c r="D417" s="43"/>
+      <c r="A417" s="40"/>
+      <c r="B417" s="20"/>
+      <c r="C417" s="13"/>
+      <c r="D417" s="39"/>
       <c r="E417" s="9"/>
-      <c r="F417" s="15"/>
-      <c r="G417" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H417" s="43"/>
+      <c r="F417" s="20"/>
+      <c r="G417" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H417" s="39"/>
       <c r="I417" s="9"/>
-      <c r="J417" s="12"/>
-      <c r="K417" s="15"/>
+      <c r="J417" s="11"/>
+      <c r="K417" s="20"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" s="40"/>
+      <c r="B418" s="20"/>
+      <c r="C418" s="13"/>
+      <c r="D418" s="39"/>
+      <c r="E418" s="9"/>
+      <c r="F418" s="20"/>
+      <c r="G418" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H418" s="39"/>
+      <c r="I418" s="9"/>
+      <c r="J418" s="11"/>
+      <c r="K418" s="20"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A419" s="40"/>
+      <c r="B419" s="20"/>
+      <c r="C419" s="13"/>
+      <c r="D419" s="39"/>
+      <c r="E419" s="9"/>
+      <c r="F419" s="20"/>
+      <c r="G419" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H419" s="39"/>
+      <c r="I419" s="9"/>
+      <c r="J419" s="11"/>
+      <c r="K419" s="20"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="41"/>
+      <c r="B420" s="15"/>
+      <c r="C420" s="42"/>
+      <c r="D420" s="43"/>
+      <c r="E420" s="9"/>
+      <c r="F420" s="15"/>
+      <c r="G420" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H420" s="43"/>
+      <c r="I420" s="9"/>
+      <c r="J420" s="12"/>
+      <c r="K420" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11031,14 +11109,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="11">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.32700000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -11087,7 +11165,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>482.44899999999996</v>
+        <v>484.94899999999996</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
